--- a/src/test/java/ApachePOI/resource/WriteInTheExcelFile.xlsx
+++ b/src/test/java/ApachePOI/resource/WriteInTheExcelFile.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/metinhasal/Desktop/Cucumber3/src/test/java/ApachePOI/resource/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechnoStudy\IdeaProjects\Cucumber_Kursu3\src\test\java\ApachePOI\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D429EDE-2CD9-BB44-AB01-C6E6420AAA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="2240" windowWidth="27340" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>Merhaba Dünya</t>
   </si>
@@ -33,7 +32,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -344,49 +344,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
+      <c r="B1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J1" t="n">
+        <v>9.0</v>
       </c>
     </row>
   </sheetData>
